--- a/studying_pandas/result.xlsx
+++ b/studying_pandas/result.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,156 +407,141 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="n">
+        <v>7700</v>
+      </c>
       <c r="C2" t="n">
-        <v>7700</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>700</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="n">
+      <c r="B3" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
         <v>15</v>
       </c>
-      <c r="F2" t="n">
-        <v>700</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="E3" t="n">
+        <v>600</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7900</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>580</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>96.66666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7600</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18</v>
+      </c>
+      <c r="E5" t="n">
+        <v>630</v>
+      </c>
+      <c r="F5" t="n">
         <v>7</v>
       </c>
-      <c r="H2" t="n">
-        <v>100</v>
+      <c r="G5" t="n">
+        <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7800</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>650</v>
+      </c>
+      <c r="F6" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9</v>
-      </c>
-      <c r="E3" t="n">
-        <v>15</v>
-      </c>
-      <c r="F3" t="n">
-        <v>600</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7900</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>16</v>
-      </c>
-      <c r="F4" t="n">
-        <v>580</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>96.66666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11</v>
-      </c>
-      <c r="E5" t="n">
-        <v>18</v>
-      </c>
-      <c r="F5" t="n">
-        <v>630</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>17</v>
-      </c>
-      <c r="F6" t="n">
-        <v>650</v>
-      </c>
       <c r="G6" t="n">
-        <v>8</v>
-      </c>
-      <c r="H6" t="n">
         <v>81.25</v>
       </c>
     </row>
